--- a/Stat reports/Reports/Templates/12-т.xlsx
+++ b/Stat reports/Reports/Templates/12-т.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620617FA-100C-4424-BA5A-5DBD0F62C0B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -22,218 +16,218 @@
     <sheet name="Раздел 6" sheetId="7" r:id="rId7"/>
     <sheet name="Раздел 7" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>12-т</t>
-  </si>
-  <si>
-    <t>Юридические лица, их обособленные подразделения  в
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юридические лица, их обособленные подразделения  в
 соответствии с Указаниями по заполнению настоящей формы
 Главному статистическому управлению города Минска; отделу
 статистики в районе (городе) главного статистического
 управления области</t>
   </si>
   <si>
-    <t>12 числа после отчетного периода</t>
-  </si>
-  <si>
-    <t>Код формы
+    <t xml:space="preserve">12 числа после отчетного периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0604064</t>
-  </si>
-  <si>
-    <t>Месячная</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0604064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Месячная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: ЗАВОД ЖЕЛЕЗОБЕТОННЫХ КОНСТРУКЦИЙ
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: ЗАВОД ЖЕЛЕЗОБЕТОННЫХ КОНСТРУКЦИЙ
 ОТКРЫТОГО АКЦИОНЕРНОГО ОБЩЕСТВА "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск</t>
-  </si>
-  <si>
-    <t>Электронный адрес: oao.zgbk@gmail.com, zgbk@str3.by, oao.zgbk@gmail.com</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>Территория нахождения структурного подразделения (наименование района, города областного подчинения, город Минск)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>012774946001</t>
-  </si>
-  <si>
-    <t>600142670</t>
-  </si>
-  <si>
-    <t>Солигорский</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Код признака организации: 1 - бюджетная, 2 - небюджетная</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Код
+    <t xml:space="preserve">Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: oao.zgbk@gmail.com, zgbk@str3.by, oao.zgbk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Территория нахождения структурного подразделения (наименование района, города областного подчинения, город Минск)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600142670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солигорский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код признака организации: 1 - бюджетная, 2 - небюджетная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код
 признака
 организации</t>
   </si>
   <si>
-    <t>Ед.измерения</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>ЧИСЛЕННОСТЬ РАБОТНИКОВ, ЗАРАБОТНАЯ ПЛАТА И ОТРАБОТАННОЕ ВРЕМЯ</t>
-  </si>
-  <si>
-    <t>Таблица 10 Признак организации</t>
+    <t xml:space="preserve">Ед.измерения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧИСЛЕННОСТЬ РАБОТНИКОВ, ЗАРАБОТНАЯ ПЛАТА И ОТРАБОТАННОЕ ВРЕМЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 10 Признак организации</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>руб.</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Размер тарифной ставки I разряда, фактически сложившийся в организации для всего
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер тарифной ставки I разряда, фактически сложившийся в организации для всего
 персонала</t>
   </si>
   <si>
-    <t>тысяч
+    <t xml:space="preserve">тысяч
 человеко-часов</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Число отработанных человеко-часов (кроме отработанных внешними совместителями и
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число отработанных человеко-часов (кроме отработанных внешними совместителями и
 гражданами, выполнявшими работу по гражданско-правовым договорам)</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Среднемесячная заработная плата  ((стр.2-стр.3-стр.4)*1000:стр.1)/количество
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднемесячная заработная плата  ((стр.2-стр.3-стр.4)*1000:стр.1)/количество
 месяцев в отчетном периоде)</t>
   </si>
   <si>
-    <t>тысяч
+    <t xml:space="preserve">тысяч
 рублей</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>несписочного состава, включая граждан, выполнявших работу по гражданско-правовым
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">несписочного состава, включая граждан, выполнявших работу по гражданско-правовым
 договорам</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>из него: внешних совместителей</t>
-  </si>
-  <si>
-    <t>Фонд заработной платы работников списочного и несписочного состава и внешних
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из него: внешних совместителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фонд заработной платы работников списочного и несписочного состава и внешних
 совместителей</t>
   </si>
   <si>
-    <t>чел.</t>
-  </si>
-  <si>
-    <t>Среднесписочная численность работников (без внешних совместителей и граждан,
+    <t xml:space="preserve">чел.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднесписочная численность работников (без внешних совместителей и граждан,
 выполнявших работу по гражданско-правовым договорам)</t>
   </si>
   <si>
-    <t>За
+    <t xml:space="preserve">За
 отчетный
 период</t>
   </si>
   <si>
-    <t>За
+    <t xml:space="preserve">За
 последний
 месяц
 отчетного
 периода</t>
   </si>
   <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Таблица 1  (данные по строкам 6 и 7 заполняются в отчетах за январь-март, январь-июнь, январь-сентябрь, январь-декабрь)</t>
-  </si>
-  <si>
-    <t>За
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 1  (данные по строкам 6 и 7 заполняются в отчетах за январь-март, январь-июнь, январь-сентябрь, январь-декабрь)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За
 соответствующий
 месяц
 прошлого
 года</t>
   </si>
   <si>
-    <t>За
+    <t xml:space="preserve">За
 соответствующий
 отчетный
 период
@@ -241,86 +235,86 @@
 года</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Число отработанных человеко-часов инвалидами (кроме отработанных внешними
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число отработанных человеко-часов инвалидами (кроме отработанных внешними
 совместителями и гражданами, выполнявшими работу по гражданско-правовым
 договорам) за декабрь из данных по строке 06 в графе 1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Фонд заработной платы инвалидов (работников списочного состава, кроме внешних
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фонд заработной платы инвалидов (работников списочного состава, кроме внешних
 совместителей) за декабрь из данных по строке 02 в графе 1</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Фонд заработной платы женщин (работников списочного состава, включая внешних
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фонд заработной платы женщин (работников списочного состава, включая внешних
 совместителей) за декабрь из данных по строке 2 в графе 1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Среднесписочная численность инвалидов за декабрь из данных по строке 1 в графе 1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Cреднесписочная численность женщин за декабрь из данных по строке 1 в графе 1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Задолженность по кредитам и займам на выплату заработной платы по состоянию на 1
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднесписочная численность инвалидов за декабрь из данных по строке 1 в графе 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cреднесписочная численность женщин за декабрь из данных по строке 1 в графе 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задолженность по кредитам и займам на выплату заработной платы по состоянию на 1
 число месяца, следующего за отчетным (счета бухгалтерского учета 66, 67)</t>
   </si>
   <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>Таблица 2 Справочная информация (данные по строкам 11-12, 16-18 заполняются в отчете за январь-декабрь)</t>
-  </si>
-  <si>
-    <t>6250000000</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>в том числе по структурным подразделениям:</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Всего по организации</t>
-  </si>
-  <si>
-    <t>за
+    <t xml:space="preserve">Всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 2 Справочная информация (данные по строкам 11-12, 16-18 заполняются в отчете за январь-декабрь)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6250000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе по структурным подразделениям:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего по организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за
 отчетный
 период</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 последний
 месяц
 отчетного
 периода</t>
   </si>
   <si>
-    <t>Средняя численность
+    <t xml:space="preserve">Средняя численность
 внешних
 совместителей</t>
   </si>
   <si>
-    <t>Средняя численность
+    <t xml:space="preserve">Средняя численность
 граждан,
 выполнявших работу
 по
@@ -328,7 +322,7 @@
 договорам</t>
   </si>
   <si>
-    <t>Списочная
+    <t xml:space="preserve">Списочная
 численность
 работников в
 среднем за период
@@ -342,195 +336,195 @@
 возраста трех лет)</t>
   </si>
   <si>
-    <t>Место нахождения структурного подразделения (название района, города областного
+    <t xml:space="preserve">Место нахождения структурного подразделения (название района, города областного
 подчинения)</t>
   </si>
   <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>СПИСОЧНАЯ ЧИСЛЕННОСТЬ РАБОТНИКОВ В СРЕДНЕМ ЗА ПЕРИОД, СРЕДНЯЯ ЧИСЛЕННОСТЬ ГРАЖДАН, ВЫПОЛНЯВШИХ РАБОТУ ПО ГРАЖДАНСКО-ПРАВОВЫМ ДОГОВОРАМ, И ВНЕШНИХ СОВМЕСТИТЕЛЕЙ</t>
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПИСОЧНАЯ ЧИСЛЕННОСТЬ РАБОТНИКОВ В СРЕДНЕМ ЗА ПЕРИОД, СРЕДНЯЯ ЧИСЛЕННОСТЬ ГРАЖДАН, ВЫПОЛНЯВШИХ РАБОТУ ПО ГРАЖДАНСКО-ПРАВОВЫМ ДОГОВОРАМ, И ВНЕШНИХ СОВМЕСТИТЕЛЕЙ</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 3  </t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Численность уволенных (переведенных, перемещенных) работников из числа ранее
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численность уволенных (переведенных, перемещенных) работников из числа ранее
 принятых в отчетном периоде на дополнительно введенные рабочие места (стр.111
 гр.2) в случае исключения из штатного расписания соответствующих штатных
 единиц</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>за прогул и другие нарушения исполнительской и трудовой дисциплины</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>из них: в случае ликвидации организации, сокращения численности или штата
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за прогул и другие нарушения исполнительской и трудовой дисциплины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: в случае ликвидации организации, сокращения численности или штата
 работников</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Численность уволенных работников - всего</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>из строки 111 численность работников, принятых на высокопроизводительные рабочие
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численность уволенных работников - всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из строки 111 численность работников, принятых на высокопроизводительные рабочие
 места</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>из них на дополнительно введенные рабочие места</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Численность работников, принятых на работу - всего</t>
-  </si>
-  <si>
-    <t>человеко-
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них на дополнительно введенные рабочие места</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численность работников, принятых на работу - всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">человеко-
 дней</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Число человеко-дней целодневных (целосменных) простоев</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Численность работников, находившихся в целодневном (целосменном) простое</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>из них человеко-дней отпусков без сохранения заработной платы</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Число человеко-дней отпусков по инициативе нанимателя</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>из них численность работников, которым были предоставлены отпуска без сохранения
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число человеко-дней целодневных (целосменных) простоев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численность работников, находившихся в целодневном (целосменном) простое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них человеко-дней отпусков без сохранения заработной платы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число человеко-дней отпусков по инициативе нанимателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них численность работников, которым были предоставлены отпуска без сохранения
 заработной платы</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Численность работников, которым были предоставлены отпуска без сохранения или с
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численность работников, которым были предоставлены отпуска без сохранения или с
 частичным сохранением заработной платы по инициативе нанимателя</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Число неотработанных человеко-часов работниками, работавшими неполное рабочее
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число неотработанных человеко-часов работниками, работавшими неполное рабочее
 время (день, неделю) по инициативе нанимателя</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Численность работников, работавших неполное рабочее время (день, неделю) по
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численность работников, работавших неполное рабочее время (день, неделю) по
 инициативе нанимателя</t>
   </si>
   <si>
-    <t>Раздел 3</t>
-  </si>
-  <si>
-    <t>РАБОТА В РЕЖИМЕ ВЫНУЖДЕННОЙ НЕПОЛНОЙ ЗАНЯТОСТИ И ДВИЖЕНИЕ РАБОТНИКОВ СПИСОЧНОГО СОСТАВА (БЕЗ ВНЕШНИХ СОВМЕСТИТЕЛЕЙ)</t>
-  </si>
-  <si>
-    <t>Таблица 5 (данные по строке 116 заполняются организациями с основным видом экономической деятельности,
+    <t xml:space="preserve">Раздел 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАБОТА В РЕЖИМЕ ВЫНУЖДЕННОЙ НЕПОЛНОЙ ЗАНЯТОСТИ И ДВИЖЕНИЕ РАБОТНИКОВ СПИСОЧНОГО СОСТАВА (БЕЗ ВНЕШНИХ СОВМЕСТИТЕЛЕЙ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 (данные по строке 116 заполняются организациями с основным видом экономической деятельности,
 указанным в приложении к Указаниям по заполнению формы, в отчетах за январь-март, январь-июнь,
 январь-сентябрь, январь-декабрь.)</t>
   </si>
   <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>медицинские работники со средним специальным медицинским, фармацевтическим
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">медицинские работники со средним специальным медицинским, фармацевтическим
 образованием</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>врачи (всех специальностей)</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>Организации здравоохранения:</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>профессорско-преподавательский состав</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>воспитатели дошкольного образования</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>из них: учителя (всех специальностей)</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>педагогические работники (кроме профессорско-преподавательского состава)</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>Учреждения образования (учреждения образования, иные организации, которым в
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">врачи (всех специальностей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Организации здравоохранения:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">профессорско-преподавательский состав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">воспитатели дошкольного образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: учителя (всех специальностей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">педагогические работники (кроме профессорско-преподавательского состава)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения образования (учреждения образования, иные организации, которым в
 соответствии с законодательством Республики Беларусь предоставлено право
 осуществлять образовательную деятельность):</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>за
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за
 отчетный
 период,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 последний
 месяц
 отчетного
@@ -539,13 +533,13 @@
 рублей</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 отчетный
 период ,
 чел.</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 последний
 месяц
 отчетного
@@ -553,29 +547,29 @@
 чел.</t>
   </si>
   <si>
-    <t>Фонд заработной платы работников
+    <t xml:space="preserve">Фонд заработной платы работников
 списочного состава и внешних
 совместителей (без граждан, выполнявших
 работу по гражданско-правовым
 договорам)</t>
   </si>
   <si>
-    <t>Среднесписочная численность работников
+    <t xml:space="preserve">Среднесписочная численность работников
 (без внешних совместителей и граждан,
 выполнявших работу по
 гражданско-правовым договорам)</t>
   </si>
   <si>
-    <t>Раздел 4</t>
-  </si>
-  <si>
-    <t>ЧИСЛЕННОСТЬ И ФОНД ЗАРАБОТНОЙ ПЛАТЫ ОТДЕЛЬНЫХ КАТЕГОРИЙ РАБОТНИКОВ</t>
-  </si>
-  <si>
-    <t>Таблица 6 ВНИМАНИЕ! Таблицу заполняют только учреждения образования, код основного вида деятельности которых находится в интервале 85100-85600, и организации здравоохранения, код основного вида деятельности которых находится в интервале 86101-86909.</t>
-  </si>
-  <si>
-    <t>за
+    <t xml:space="preserve">Раздел 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧИСЛЕННОСТЬ И ФОНД ЗАРАБОТНОЙ ПЛАТЫ ОТДЕЛЬНЫХ КАТЕГОРИЙ РАБОТНИКОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 6 ВНИМАНИЕ! Таблицу заполняют только учреждения образования, код основного вида деятельности которых находится в интервале 85100-85600, и организации здравоохранения, код основного вида деятельности которых находится в интервале 86101-86909.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за
 соответствующий
 месяц
 прошлого
@@ -583,7 +577,7 @@
 чел.</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 соответствующий
 отчетный
 период
@@ -594,7 +588,7 @@
 чел.</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 соответствующий
 месяц
 прошлого
@@ -603,7 +597,7 @@
 рублей</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 соответствующий
 отчетный
 период
@@ -615,64 +609,64 @@
 рублей</t>
   </si>
   <si>
-    <t>49410</t>
-  </si>
-  <si>
-    <t>Деятельность грузового автомобильного транспорта</t>
-  </si>
-  <si>
-    <t>56290</t>
-  </si>
-  <si>
-    <t>Прочие услуги по общественному питанию</t>
-  </si>
-  <si>
-    <t>25111</t>
-  </si>
-  <si>
-    <t>Производство строительных металлических конструкций и их частей</t>
-  </si>
-  <si>
-    <t>23630</t>
-  </si>
-  <si>
-    <t>Производство готового бетона</t>
-  </si>
-  <si>
-    <t>23612</t>
-  </si>
-  <si>
-    <t>Производство стеновых блоков</t>
-  </si>
-  <si>
-    <t>23611</t>
-  </si>
-  <si>
-    <t>Производство сборных железобетонных и бетонных конструкций и изделий</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>в том числе по видам экономической деятельности:</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>средняя
+    <t xml:space="preserve">49410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деятельность грузового автомобильного транспорта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие услуги по общественному питанию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство строительных металлических конструкций и их частей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство готового бетона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство стеновых блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство сборных железобетонных и бетонных конструкций и изделий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе по видам экономической деятельности:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средняя
 численность
 граждан,
 выполнявших
@@ -686,28 +680,28 @@
 чел.</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 отчетный
 период,
 чел.</t>
   </si>
   <si>
-    <t>В сельской местности
+    <t xml:space="preserve">В сельской местности
 *Данные заполняются
 в отчете за
 январь-декабрь</t>
   </si>
   <si>
-    <t>Раздел 5</t>
-  </si>
-  <si>
-    <t>ЧИСЛЕННОСТЬ И ФОНД ЗАРАБОТНОЙ ПЛАТЫ РАБОТНИКОВ ПО ВИДАМ ЭКОНОМИЧЕСКОЙ ДЕЯТЕЛЬНОСТИ</t>
-  </si>
-  <si>
-    <t>Таблица 7 (данные по строке 130 в графах с 1 по 4 должны быть равны соответственно данным по строке 1 в графах с 1 по 4 таблицы 1 раздела I; в графах с 9 по 14 - соответственно данным по строке 20 в графах с 1 по 6 таблицы 3 раздела II)</t>
-  </si>
-  <si>
-    <t>за
+    <t xml:space="preserve">Раздел 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧИСЛЕННОСТЬ И ФОНД ЗАРАБОТНОЙ ПЛАТЫ РАБОТНИКОВ ПО ВИДАМ ЭКОНОМИЧЕСКОЙ ДЕЯТЕЛЬНОСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 7 (данные по строке 130 в графах с 1 по 4 должны быть равны соответственно данным по строке 1 в графах с 1 по 4 таблицы 1 раздела I; в графах с 9 по 14 - соответственно данным по строке 20 в графах с 1 по 6 таблицы 3 раздела II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за
 соответствующий
 отчетный
 период
@@ -716,7 +710,7 @@
 чел.</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 отчетный
 период
 ,
@@ -724,7 +718,7 @@
 рублей</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 соответствующий
 отчетный
 период
@@ -734,7 +728,7 @@
 рублей</t>
   </si>
   <si>
-    <t>списочная
+    <t xml:space="preserve">списочная
 численность
 работников
 в
@@ -745,34 +739,35 @@
 чел.</t>
   </si>
   <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
-    <t>Отчет по труду  за</t>
+    <t xml:space="preserve">Отчет по труду  за</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1218,11 +1213,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1524,8 +1519,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11:M11"/>
@@ -1857,8 +1852,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1951,8 +1946,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -2168,8 +2163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -2332,8 +2327,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:H12"/>
@@ -2519,8 +2514,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E23"/>
@@ -2806,8 +2801,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:J17"/>
@@ -3098,8 +3093,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="E24" sqref="E24:J25"/>
